--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Python/projects/ds_projects/mp-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80F9EC8-CA50-8B44-8C4A-C741FE2C9612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DC916A-BEB1-2347-B257-E9914C627C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{6A268DE4-0005-014C-B0BE-8148B9D10FC6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>company</t>
   </si>
@@ -44,15 +44,6 @@
     <t>cvr</t>
   </si>
   <si>
-    <t>yearly result latest (in thousands)</t>
-  </si>
-  <si>
-    <t>yearly result previous (in thousands)</t>
-  </si>
-  <si>
-    <t>yearly result before (in thousands)</t>
-  </si>
-  <si>
     <t>employees</t>
   </si>
   <si>
@@ -132,6 +123,84 @@
   </si>
   <si>
     <t>Brøndby IF</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Gråbrødrepassagen 9, Odense C</t>
+  </si>
+  <si>
+    <t>Novo Alle 1, Bagsværd</t>
+  </si>
+  <si>
+    <t>Lautrupparken 40, Ballerup</t>
+  </si>
+  <si>
+    <t>Gothersgade 14, København K</t>
+  </si>
+  <si>
+    <t>Lautrupvang 1, Ballerup</t>
+  </si>
+  <si>
+    <t>Holmbladsgade 133, København S</t>
+  </si>
+  <si>
+    <t>Dynamovej 11, Søborg</t>
+  </si>
+  <si>
+    <t>Købmagergade 11, København K</t>
+  </si>
+  <si>
+    <t>Bryggeristræde 2, Allinge</t>
+  </si>
+  <si>
+    <t>Gearhalsvej 1, Valby</t>
+  </si>
+  <si>
+    <t>Teglholmsgade 1, København SV</t>
+  </si>
+  <si>
+    <t>Tempovej 27, Ballerup</t>
+  </si>
+  <si>
+    <t>Jagtvej 157, København N</t>
+  </si>
+  <si>
+    <t>Kongebakken 9, Smørum</t>
+  </si>
+  <si>
+    <t>Ryesgade 74, København Ø</t>
+  </si>
+  <si>
+    <t>Skovmarken 3, Kongens Lyngby</t>
+  </si>
+  <si>
+    <t>Suderbovej 22, Frederikshavn</t>
+  </si>
+  <si>
+    <t>Borupvang 4, Ballerup</t>
+  </si>
+  <si>
+    <t>Brøndby Stadion 30, Brøndby</t>
+  </si>
+  <si>
+    <t>Wildersgade 51, København K</t>
+  </si>
+  <si>
+    <t>Sundkrogsgade 4, København Ø</t>
+  </si>
+  <si>
+    <t>Grønningen 17, København K</t>
+  </si>
+  <si>
+    <t>Tangen 6, Aarhus N</t>
+  </si>
+  <si>
+    <t>Trollesmindealle 25, Hillerød</t>
+  </si>
+  <si>
+    <t>Wildersgade 9, København K</t>
   </si>
 </sst>
 </file>
@@ -505,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A400513-8384-1D47-9A6F-C4A9FEF9C1A4}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,31 +587,36 @@
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="34.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>10121361</v>
@@ -559,10 +633,13 @@
       <c r="F2" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>13594376</v>
@@ -579,10 +656,13 @@
       <c r="F3" s="3">
         <v>1464</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>14814833</v>
@@ -599,10 +679,13 @@
       <c r="F4" s="3">
         <v>2340</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>20117982</v>
@@ -619,10 +702,13 @@
       <c r="F5" s="3">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>20896949</v>
@@ -639,10 +725,13 @@
       <c r="F6" s="3">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>21830445</v>
@@ -659,10 +748,13 @@
       <c r="F7" s="3">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>24256790</v>
@@ -679,10 +771,13 @@
       <c r="F8" s="3">
         <v>22150</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>26911745</v>
@@ -699,10 +794,13 @@
       <c r="F9" s="3">
         <v>1855</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>27506488</v>
@@ -719,10 +817,13 @@
       <c r="F10" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>29177015</v>
@@ -739,10 +840,13 @@
       <c r="F11" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>30240782</v>
@@ -759,10 +863,13 @@
       <c r="F12" s="3">
         <v>266</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>34486735</v>
@@ -779,10 +886,13 @@
       <c r="F13" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>35211942</v>
@@ -799,10 +909,13 @@
       <c r="F14" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3">
         <v>38174010</v>
@@ -819,10 +932,13 @@
       <c r="F15" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
         <v>38455958</v>
@@ -839,10 +955,13 @@
       <c r="F16" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3">
         <v>38863398</v>
@@ -859,10 +978,13 @@
       <c r="F17" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>40075291</v>
@@ -879,10 +1001,13 @@
       <c r="F18" s="3">
         <v>3642</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>40916458</v>
@@ -899,10 +1024,13 @@
       <c r="F19" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>41354755</v>
@@ -919,10 +1047,13 @@
       <c r="F20" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>42334219</v>
@@ -939,50 +1070,59 @@
       <c r="F21" s="3">
         <v>1602</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
         <v>42775843</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>43186329</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>61966617</v>
@@ -999,10 +1139,13 @@
       <c r="F24" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>78416114</v>
@@ -1019,10 +1162,13 @@
       <c r="F25" s="3">
         <v>2317</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
         <v>83933410</v>
@@ -1038,6 +1184,9 @@
       </c>
       <c r="F26" s="2">
         <v>297</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
